--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3961.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3961.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.21451135651244</v>
+        <v>0.9740301966667175</v>
       </c>
       <c r="B1">
-        <v>2.29447469484108</v>
+        <v>1.965752124786377</v>
       </c>
       <c r="C1">
-        <v>6.401894971770838</v>
+        <v>2.928719282150269</v>
       </c>
       <c r="D1">
-        <v>3.424912883250645</v>
+        <v>2.378083229064941</v>
       </c>
       <c r="E1">
-        <v>1.397141180167687</v>
+        <v>0.8414344787597656</v>
       </c>
     </row>
   </sheetData>
